--- a/dtpu_configurations/only_integer32/100mhz/mxu_4x4/power.xlsx
+++ b/dtpu_configurations/only_integer32/100mhz/mxu_4x4/power.xlsx
@@ -127,7 +127,7 @@
     <col min="3" max="3" width="9.84375" customWidth="true"/>
     <col min="4" max="4" width="8.75" customWidth="true"/>
     <col min="5" max="5" width="8.75" customWidth="true"/>
-    <col min="6" max="6" width="10.3125" customWidth="true"/>
+    <col min="6" max="6" width="8.75" customWidth="true"/>
     <col min="7" max="7" width="8.75" customWidth="true"/>
     <col min="8" max="8" width="8.75" customWidth="true"/>
     <col min="9" max="9" width="8.75" customWidth="true"/>
@@ -175,19 +175,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.03422290459275246</v>
+        <v>0.04703248292207718</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.019660834223031998</v>
+        <v>0.017118943855166435</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.013352601788938046</v>
+        <v>0.013356495648622513</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.00842276494950056</v>
+        <v>0.009259939193725586</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>2.991438304889016E-5</v>
+        <v>0.0013656866503879428</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>0.0022045078221708536</v>
@@ -199,10 +199,10 @@
         <v>1.2619483470916748</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12667925655841827</v>
+        <v>0.1278122067451477</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4684741497039795</v>
+        <v>1.4820516109466553</v>
       </c>
     </row>
   </sheetData>
